--- a/project_implementation/csvs/k_ates.xlsx
+++ b/project_implementation/csvs/k_ates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{329EC3C2-EE88-495A-8FCB-461E854C4949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F04AA20-D569-4F1C-BF8B-4BDC95F4CC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="k_ates" sheetId="1" r:id="rId1"/>
@@ -1975,7 +1975,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2810,11 +2810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q659"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="H647" sqref="H647:P659"/>
+      <selection activeCell="N649" sqref="N649:P652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34367,13 +34367,13 @@
         <v>3.04</v>
       </c>
       <c r="N649">
-        <v>47.6</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="O649">
-        <v>1</v>
+        <v>19.7</v>
       </c>
       <c r="P649">
-        <v>12.4</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="650" spans="8:16" x14ac:dyDescent="0.3">
@@ -34396,13 +34396,13 @@
         <v>8.48</v>
       </c>
       <c r="N650">
-        <v>69.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="O650">
-        <v>3.8</v>
+        <v>30.9</v>
       </c>
       <c r="P650">
-        <v>33.6</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="651" spans="8:16" x14ac:dyDescent="0.3">
@@ -34425,13 +34425,13 @@
         <v>35.200000000000003</v>
       </c>
       <c r="N651">
-        <v>74.5</v>
+        <v>83.4</v>
       </c>
       <c r="O651">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="P651">
-        <v>48.7</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="652" spans="8:16" x14ac:dyDescent="0.3">
@@ -34454,13 +34454,13 @@
         <v>56.8</v>
       </c>
       <c r="N652">
-        <v>77.3</v>
+        <v>87.2</v>
       </c>
       <c r="O652">
-        <v>9</v>
+        <v>58.6</v>
       </c>
       <c r="P652">
-        <v>53.7</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="653" spans="8:16" x14ac:dyDescent="0.3">
